--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF903065-64B4-3742-847F-6699A7E44A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F8522A-3DA7-D64A-AD13-80A8C6DD535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>9</v>

--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F8522A-3DA7-D64A-AD13-80A8C6DD535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE84373-B534-134D-9E3B-C6C58633CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Z</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>FixD</t>
+  </si>
+  <si>
+    <t>addZeroPt</t>
   </si>
 </sst>
 </file>
@@ -443,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D14EA0-1DC4-1B48-8D32-0FB8E0B6865F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +491,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -500,10 +512,10 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -520,8 +532,14 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -538,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -555,8 +573,14 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -573,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -590,8 +614,14 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -608,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -625,8 +655,14 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -660,8 +696,14 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -695,8 +737,14 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -707,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -730,8 +778,14 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -748,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -764,6 +818,12 @@
       </c>
       <c r="K9" t="b">
         <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE84373-B534-134D-9E3B-C6C58633CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E3472-2448-C343-A713-4D7B7B5D9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
+    <workbookView xWindow="1260" yWindow="4140" windowWidth="28040" windowHeight="14540" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="O" sheetId="1" r:id="rId1"/>
+    <sheet name="Fe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Z</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>addZeroPt</t>
+  </si>
+  <si>
+    <t>Fe</t>
   </si>
 </sst>
 </file>
@@ -451,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D14EA0-1DC4-1B48-8D32-0FB8E0B6865F}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -829,4 +833,1126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C152014-E97D-8A4E-9FD1-B5BE08E0F548}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>300</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>600</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>300</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>300</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>300</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970E3472-2448-C343-A713-4D7B7B5D9B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E312631-318D-634B-B406-7E5F6CA9CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4140" windowWidth="28040" windowHeight="14540" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
+    <workbookView xWindow="1580" yWindow="4160" windowWidth="28040" windowHeight="14560" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="O" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">

--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E312631-318D-634B-B406-7E5F6CA9CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CAFDE1-8243-C340-B752-E02604BB15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="4160" windowWidth="28040" windowHeight="14560" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="O" sheetId="1" r:id="rId1"/>
     <sheet name="Fe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -840,7 +840,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,10 +900,10 @@
         <v>200</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -941,10 +941,10 @@
         <v>200</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>200</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>

--- a/ionrecFitSettings.xlsx
+++ b/ionrecFitSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CAFDE1-8243-C340-B752-E02604BB15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A0701-5653-AB43-99C5-4533575E360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="4160" windowWidth="28040" windowHeight="14560" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
+    <workbookView xWindow="1580" yWindow="3640" windowWidth="28040" windowHeight="14560" activeTab="1" xr2:uid="{70F94D0D-B77B-D34F-B605-C670112A4F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="O" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,10 +1187,10 @@
         <v>200</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>4</v>
